--- a/DATA/mta_type_availability.xlsx
+++ b/DATA/mta_type_availability.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,28 +467,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45725.375</v>
+        <v>45725.53125</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45725.59375</v>
+        <v>45725.63194444445</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45725.52083333334</v>
+        <v>45725.38541666666</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45725.66319444445</v>
+        <v>45725.64583333334</v>
       </c>
     </row>
     <row r="4">
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45725.53125</v>
+        <v>45725.51388888889</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45725.62847222222</v>
+        <v>45725.64583333334</v>
       </c>
     </row>
     <row r="5">
@@ -517,98 +517,110 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45725.43055555555</v>
+        <v>45725.55902777778</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45725.60763888889</v>
+        <v>45725.68402777778</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45725.48611111111</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45725.58680555555</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Thursday</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45725.54166666666</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>45725.69444444445</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
       <c r="C7" s="2" t="n">
-        <v>45725.39583333334</v>
+        <v>45725.47222222222</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45725.64583333334</v>
+        <v>45725.60069444445</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Puppetry</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45725.49305555555</v>
+        <v>45725.38194444445</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45725.67013888889</v>
+        <v>45725.63194444445</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Bible Teaching</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45725.42708333334</v>
+        <v>45725.49652777778</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45725.55902777778</v>
+        <v>45725.64930555555</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45725.38194444445</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45725.55555555555</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Inspirational Writing</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45725.46875</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>45725.63888888889</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
       <c r="C11" s="2" t="n">
-        <v>45725.56944444445</v>
+        <v>45725.42708333334</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45725.68402777778</v>
+        <v>45725.62847222222</v>
       </c>
     </row>
     <row r="12">
@@ -619,60 +631,56 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45725.57291666666</v>
+        <v>45725.47222222222</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45725.67361111111</v>
+        <v>45725.63194444445</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Puppetry</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
           <t>Thursday</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45725.43055555555</v>
+        <v>45725.52777777778</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45725.54861111111</v>
+        <v>45725.6875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45725.54513888889</v>
+        <v>45725.57291666666</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45725.67708333334</v>
+        <v>45725.69097222222</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bible Teaching</t>
+          <t>Drama</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45725.57638888889</v>
+        <v>45725.47916666666</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45725.69444444445</v>
+        <v>45725.62152777778</v>
       </c>
     </row>
     <row r="16">
@@ -683,102 +691,102 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45725.47916666666</v>
+        <v>45725.52083333334</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45725.67708333334</v>
+        <v>45725.63888888889</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45725.41319444445</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45725.53472222222</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45725.51041666666</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>45725.6875</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Inspirational Writing</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
       <c r="C18" s="2" t="n">
-        <v>45725.56944444445</v>
+        <v>45725.44791666666</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45725.68402777778</v>
+        <v>45725.5625</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Gospel Art</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45725.56597222222</v>
+        <v>45725.51388888889</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45725.69791666666</v>
+        <v>45725.65277777778</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45725.57986111111</v>
+        <v>45725.38541666666</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45725.67013888889</v>
+        <v>45725.50347222222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45725.51041666666</v>
+        <v>45725.52777777778</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45725.67708333334</v>
+        <v>45725.67013888889</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Drama</t>
+          <t>Sign Language</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45725.57291666666</v>
+        <v>45725.43402777778</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45725.67361111111</v>
+        <v>45725.58333333334</v>
       </c>
     </row>
     <row r="23">
@@ -792,64 +800,64 @@
         <v>45725.49652777778</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45725.69791666666</v>
+        <v>45725.625</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45725.44444444445</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45725.63541666666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Worship Leading</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45725.47916666666</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45725.67013888889</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>Monday</t>
         </is>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45725.55208333334</v>
-      </c>
-      <c r="D24" s="2" t="n">
+      <c r="C26" s="2" t="n">
+        <v>45725.40972222222</v>
+      </c>
+      <c r="D26" s="2" t="n">
         <v>45725.70486111111</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>45725.5</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>45725.69444444445</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Gospel Art</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>45725.42013888889</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>45725.63194444445</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45725.5625</v>
+        <v>45725.54513888889</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>45725.67708333334</v>
@@ -859,92 +867,14 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45725.5625</v>
+        <v>45725.54166666666</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45725.70138888889</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>45725.57986111111</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>45725.67708333334</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Sign Language</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>45725.51041666666</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>45725.625</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>45725.4375</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>45725.61458333334</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>45725.40972222222</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>45725.52777777778</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Worship Leading</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>45725.48611111111</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>45725.69791666666</v>
+        <v>45725.67013888889</v>
       </c>
     </row>
   </sheetData>
